--- a/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-eu-is-redeemable-by-properties-extension.xlsx
+++ b/eflow-rx/build/1.0.0-draft/StructureDefinition-eflow-rx-eu-is-redeemable-by-properties-extension.xlsx
@@ -1362,7 +1362,7 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>109</v>
